--- a/docs/user.xlsx
+++ b/docs/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class\2021-Autumn\1,4-数据库系统原理\实验部分\Exp_Final\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1002C96-4C13-43B0-B60A-5134FB6D25C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338001E9-5F2C-4964-A02D-A90A1EAAD8A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{0C301CCE-27FA-402E-9831-FCDF66375BB5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
   </si>
   <si>
     <t>carol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2qqqqqqq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -670,7 +666,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -698,10 +694,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -715,10 +711,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
@@ -735,19 +731,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -755,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -764,10 +760,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>12</v>
@@ -778,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -787,10 +783,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>13</v>
@@ -798,30 +794,30 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -835,13 +831,13 @@
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -852,16 +848,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -872,16 +868,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -892,16 +888,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -912,16 +908,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -932,16 +928,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -952,16 +948,16 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">

--- a/docs/user.xlsx
+++ b/docs/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class\2021-Autumn\1,4-数据库系统原理\实验部分\Exp_Final\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338001E9-5F2C-4964-A02D-A90A1EAAD8A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBED95EB-533B-4891-9CDE-774D39AE7F97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{0C301CCE-27FA-402E-9831-FCDF66375BB5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,38 @@
   </si>
   <si>
     <t>f@@kof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rtttt</t>
+  </si>
+  <si>
+    <t>214ddff</t>
+  </si>
+  <si>
+    <t>32tffsf</t>
+  </si>
+  <si>
+    <t>特朗普</t>
+  </si>
+  <si>
+    <t>06670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06671</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺贝尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06672</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希特勒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F848F8CA-17BC-46A9-98E3-1B0C4D988D39}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -821,152 +853,194 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>13</v>
       </c>
     </row>
